--- a/DEMO_0404.xlsx
+++ b/DEMO_0404.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vinodjayanna/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vinodjayanna/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03517FDE-51E6-8547-A970-A2D2F0CD43F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7184B75-F37F-5C41-9E8F-72907FE3B00A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
